--- a/line_chart.xlsx
+++ b/line_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1 (2)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -45,21 +45,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t xml:space="preserve"> Count per Aircraft </a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
     <plotArea>
       <lineChart>
         <grouping val="standard"/>
@@ -72,14 +87,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -99,14 +114,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -126,14 +141,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -153,14 +168,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -180,14 +195,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -207,14 +222,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -234,14 +249,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -261,14 +276,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -288,14 +303,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -315,14 +330,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -342,14 +357,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -369,14 +384,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -396,14 +411,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -423,14 +438,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -450,14 +465,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -477,14 +492,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -504,14 +519,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -531,14 +546,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -558,14 +573,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -585,14 +600,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -612,14 +627,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -639,14 +654,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -669,8 +684,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -696,8 +711,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -723,7 +738,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>2</col>
@@ -738,9 +753,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -6035,13 +6050,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10937,8 +10952,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15933,7 +15948,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>